--- a/4月/4月份客户发货需求(4.13).xlsx
+++ b/4月/4月份客户发货需求(4.13).xlsx
@@ -438,12 +438,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="F135" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>老款</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="423">
   <si>
     <t>下单日期</t>
   </si>
@@ -1829,6 +1855,14 @@
   </si>
   <si>
     <t>陈勇</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>王文霞</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北省秦皇岛市海港区工农里1-3-二楼西室</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1840,7 +1874,7 @@
     <numFmt numFmtId="176" formatCode="000000"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1921,6 +1955,13 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
@@ -2353,8 +2394,8 @@
   <dimension ref="A1:AA257"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G150" sqref="G150"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H149" sqref="H149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -8099,10 +8140,37 @@
         <v>U1-1;U2-1;</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:27" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A135" s="9">
+        <v>43568</v>
+      </c>
+      <c r="B135" s="3">
+        <v>4966181433</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="G135" s="3">
+        <v>13833511795</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="J135" s="4">
+        <v>1</v>
+      </c>
       <c r="AA135" s="3" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>U1-1;</v>
       </c>
     </row>
     <row r="136" spans="1:27" x14ac:dyDescent="0.15">
